--- a/data/trans_camb/P1804_2016_2023-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1804_2016_2023-Estudios-trans_camb.xlsx
@@ -567,10 +567,10 @@
         <v>-3.119291737980571</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-3.301017148314557</v>
+        <v>-3.301017148314556</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-3.171020111076793</v>
+        <v>-3.171020111076794</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.011851952313921</v>
+        <v>-5.844425372861644</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.132459155084797</v>
+        <v>-6.048630652403889</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.019067774167698</v>
+        <v>-5.097794549355674</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.5872968953005814</v>
+        <v>-0.3977715818637013</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8058831655778564</v>
+        <v>-0.5820239006968744</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.127212604608957</v>
+        <v>-1.297030353288469</v>
       </c>
     </row>
     <row r="7">
@@ -618,10 +618,10 @@
         <v>-0.3588621905337311</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.2813523735873692</v>
+        <v>-0.281352373587369</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3042823479976328</v>
+        <v>-0.3042823479976329</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5742802699980838</v>
+        <v>-0.5687024584393107</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4469686518174106</v>
+        <v>-0.44731845049675</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4332147385378213</v>
+        <v>-0.4357836522379213</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.06056827726377492</v>
+        <v>-0.04624291315839013</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.07512487063308605</v>
+        <v>-0.05747431288348454</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1232668360473366</v>
+        <v>-0.1321443243284707</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.07778855708393262</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-0.9073635886843845</v>
+        <v>-0.9073635886843858</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.3971576411732236</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.446932066007698</v>
+        <v>-1.335170504387171</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.653728882271276</v>
+        <v>-2.508360120825932</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.490572997263474</v>
+        <v>-1.554410023398839</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.641032742828262</v>
+        <v>1.644423167775316</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7681609224114029</v>
+        <v>0.9204121486293845</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7919957030218052</v>
+        <v>0.6525802846594193</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>0.01469892322578647</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.1089886459498527</v>
+        <v>-0.1089886459498529</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.05861370591959011</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2470562851236229</v>
+        <v>-0.2257422320250046</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2939668134953111</v>
+        <v>-0.2716715060482269</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2056175026104078</v>
+        <v>-0.2114181038898313</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3283144736681958</v>
+        <v>0.3510925318000664</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1047126243980898</v>
+        <v>0.1309398464943546</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1265800610125346</v>
+        <v>0.1036772949467524</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>2.360398234689552</v>
+        <v>2.360398234689551</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>-0.4641718502175082</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9629532089326737</v>
+        <v>0.9629532089326709</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.246238562008869</v>
+        <v>-1.173441161971837</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.285262475327166</v>
+        <v>-3.99544753990422</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.761486240227055</v>
+        <v>-1.614445900380825</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.67053076774713</v>
+        <v>6.011508356162413</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.794680922001044</v>
+        <v>3.106755893530663</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.449874893490747</v>
+        <v>3.473791140007339</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.3376101294899539</v>
+        <v>0.3376101294899537</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>-0.03760636191031488</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.09955368951915018</v>
+        <v>0.09955368951914989</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1491690213944592</v>
+        <v>-0.1382326764174993</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2913951074468636</v>
+        <v>-0.2807513783524804</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1581077234458212</v>
+        <v>-0.1436722953755108</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.030068546319036</v>
+        <v>1.10807772289035</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2809618950924495</v>
+        <v>0.2964529782957566</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.424838651758151</v>
+        <v>0.406584292957962</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-0.1185459590962695</v>
+        <v>-0.1185459590962688</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>-1.386895736113622</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.351624652122669</v>
+        <v>-1.42004962104468</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.793661224487678</v>
+        <v>-2.73774766689347</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.731930764911075</v>
+        <v>-1.608080193655027</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.100827914323115</v>
+        <v>1.037661791681847</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02092017046360191</v>
+        <v>-0.03037248691958179</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1977972970424909</v>
+        <v>0.1690775842223932</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.01873760292888504</v>
+        <v>-0.01873760292888494</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>-0.1399567013208521</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1990591474202476</v>
+        <v>-0.210629944606043</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2600114974729521</v>
+        <v>-0.25534989535694</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1982428659256165</v>
+        <v>-0.1896936845121732</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1920409748699733</v>
+        <v>0.1802930559641326</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.003556637351842386</v>
+        <v>-0.003946650326470164</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02773545836636814</v>
+        <v>0.01981365912952054</v>
       </c>
     </row>
     <row r="28">
